--- a/2.xlsx
+++ b/2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="150">
   <si>
     <t>Tabletki na odchudzanie</t>
   </si>
@@ -418,13 +418,70 @@
   </si>
   <si>
     <t>Kapsułki bardzo dobrze działają. Zaskoczyło mnie to, nie sądziłam że takie produkty naprawdę mogą pomóc. Już kilka kilgoramów za mną, ubrania noszę o rozmiar mniejsze. Kontynuuję! :)</t>
+  </si>
+  <si>
+    <t>Kapsułki są po prostu świetne. Oczywiście wiem, że bez pilnowania diety nie będzie znacznej poprawy wyglądu, ale produkt doskonale przyspiesza efekty. Już po tygodniu widzę rezultat!</t>
+  </si>
+  <si>
+    <t>U mnie sprawdziły się doskonale. Zakończyłam już odchudzanie, za mną aż 10 kilogramów. Kapsułki były bardzo pomocne, efekty były szybko i na to liczyłam. Bardzo polecam!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dla mnie świetna sprawa. Kapsułki okazaly się naprawdę skuteczne. Zawsze miałam problem z wytrwaniem na diecie i szybko odpuszczałam. A z kapsułkami się udało! Cała nadwaga zniknęła i czuję się rewelacyjnie. </t>
+  </si>
+  <si>
+    <t>Bardzo fajnie działają. Zaczęłem niedawno, ale już 3 kilo ubyło. Walczę dalej, w tym tempie na pewno szybko osiągnę cel. Kapsułki są bardzo skuteczne, polecam</t>
+  </si>
+  <si>
+    <t>Mogę polecić ten produkt każdemu, u mnie sprawdził się perefkcyjnie. Jeszcze kilka kilo przede mną, ale pierwsze efekty pojawiły się mega szybko.</t>
+  </si>
+  <si>
+    <t>Pierwszy raz postanowiłem sięgnąć po coś na odchudzanie - padło na kapsułki. Nie wierzyłem, że to może działać - ale efekty odchudzania są dużo lepsze niż wcześniej. Dla mnie super</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyjątkowo ciekawy produkt, polecam ze względu na smak i skuteczność. Dodatm też, że bardzo łatwo się je przyjmuje, co dla mnie jest szczególnie ważne. Nie cierpię standardowych tabletek, kapsułki są o niebo lespze. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produkt na piątkę z plusem. Bardzo polecam, bo naprawdę jest skuteczny. Nawet nie spodziewałem się, że efekty będą widoczne już po tygodniu. Lepsze rezultaty jeszcze bardziej mobilizują mnie do ćwiczeń. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polecam bardzo! U mnie efekty są rewelacyjne, jestem lżejsza i świetnie się czuję. Pilnuję diety, ćwiczę, ale odkąd zaczełam przyjmować kapsułki efekty są znacznie lepsze. </t>
+  </si>
+  <si>
+    <t>Kapsułki to świetny sposób na wsparcie podczas odchudzania - przynajmniej u mnie bardzo dobrze się sprawdziły. Trudno było zrzucić ostatnich kilka kilo, a z kapsułkami w końcu się udało!</t>
+  </si>
+  <si>
+    <t>Rewelacja. Zaczełem odchdudzanie, ale efenty były średnie, mimo pilnowania zdrowej diety. Postanowiłem spróbować czegoś na odchudzanie, wybrałem te kapsułki i nie żałuję. Redukcja wagi przyspieszyła, obecnie -10kg.</t>
+  </si>
+  <si>
+    <t>Dzięki tym kapsułkom w końcu udało mi się zrzucić nadprogramowe 5 kilo. To naprawdę działa! Oczywiście pilnowałem diety, ale waga spadała bardzo powoli zanim zdecydwałem się na kaspułki.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odchudzam się od dłuższego czasu. Zrzuciłem samodzielnie 15 kg i waga stanęła. Dopiero kiedy zacząłem przyjmować kapsułki, udało się zrzucić ostatnie 5kg. Teraz czuję się świetnie. Polecam!! </t>
+  </si>
+  <si>
+    <t>Bardzo fajny produkt. Ku mojemu zaskoczeniu, kapsułki są naprawdę skuteczne podczas odchudzania. Wątpiłem, że efekty będą aż tak widoczne. Oby tak dalej!</t>
+  </si>
+  <si>
+    <t>Zrzuciłem dokładnie 18 kg. Dzięki tym kapsułkom było zdecydowanie latwiej, szczególnie na początku. Miałem więcej energii do ćwiczeń, a efekty pojawiły się szybko.</t>
+  </si>
+  <si>
+    <t>Zdecydowanie warto zdecydować się na przyjmowanie kaspułek podczas odchduzania. Wcześniej nie wierzyłam, ale poleciła mi je koleżanka i rzeczywiście - kilogramy zniknęły szybciej niż się spodziewałam!</t>
+  </si>
+  <si>
+    <t>Gorąco polecam - to naprawdę działa! Kapsułki mają formę łatwą w przełykaniu. Skład produktu jest bardzo dobry, a efekty diety były widoczne niesamowicie szybko. Już w pierwszym tygodniu spadły pierwsze kilogramy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U mnie sprawdziły się na sto procent. Oczywiście starałam się pilnować diety, ale przyznam że zdarzały mi się wpadki. Mimo to waga spadała i osiagnęłam swój cel i to szybciej niż się spodziewałam. </t>
+  </si>
+  <si>
+    <t>Dla mnie super!  Odchudzanie już za mną, z kapsułkami poszło zadziwiajaco szybko. Mają fajną formę, łatwo się je przyjmuje. Ciekawy skład i co najważniejsze, szybkie działanie.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +548,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,21 +818,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="4" customWidth="1"/>
@@ -795,7 +852,7 @@
     <col min="16" max="16" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +886,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="120">
+    <row r="2" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -887,7 +944,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="120">
+    <row r="3" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -935,7 +992,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="120">
+    <row r="4" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -983,7 +1040,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="120">
+    <row r="5" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1088,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="150">
+    <row r="6" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1079,7 +1136,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="150">
+    <row r="7" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1124,7 +1181,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="120">
+    <row r="8" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1169,7 +1226,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="105">
+    <row r="9" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="135">
+    <row r="10" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1316,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="150">
+    <row r="11" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1304,7 +1361,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="150">
+    <row r="12" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1351,7 +1408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="120">
+    <row r="13" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1393,7 +1450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="120">
+    <row r="14" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1401,9 +1458,12 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="D14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>58</v>
@@ -1432,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="105">
+    <row r="15" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1440,9 +1500,12 @@
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>59</v>
@@ -1471,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="120">
+    <row r="16" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1479,9 +1542,12 @@
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="D16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>60</v>
@@ -1510,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="120">
+    <row r="17" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1518,9 +1584,12 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="D17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>61</v>
@@ -1549,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="105">
+    <row r="18" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1557,9 +1626,12 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
+      <c r="C18" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="D18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>62</v>
@@ -1588,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="120">
+    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1596,9 +1668,12 @@
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
+      <c r="C19" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="D19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>63</v>
@@ -1627,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="150">
+    <row r="20" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1635,9 +1710,12 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
+      <c r="C20" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="D20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>64</v>
@@ -1666,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="135">
+    <row r="21" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1674,9 +1752,12 @@
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="D21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>65</v>
@@ -1705,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="135">
+    <row r="22" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1713,9 +1794,12 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
+      <c r="C22" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>66</v>
@@ -1744,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="120">
+    <row r="23" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1752,9 +1836,12 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="D23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>67</v>
@@ -1783,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="105">
+    <row r="24" spans="1:16" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1791,9 +1878,12 @@
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="D24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>68</v>
@@ -1822,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="135">
+    <row r="25" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>38</v>
       </c>
@@ -1830,9 +1920,12 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
+      <c r="C25" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="D25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>69</v>
@@ -1861,7 +1954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="105">
+    <row r="26" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -1869,9 +1962,12 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
+      <c r="C26" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="D26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>70</v>
@@ -1900,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="120">
+    <row r="27" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
@@ -1908,9 +2004,12 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
+      <c r="C27" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D27" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>71</v>
@@ -1939,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="105">
+    <row r="28" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
@@ -1947,9 +2046,12 @@
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
+      <c r="C28" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>72</v>
@@ -1978,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="120">
+    <row r="29" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
@@ -1986,9 +2088,12 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
+      <c r="C29" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="D29" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>73</v>
@@ -2017,7 +2122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="135">
+    <row r="30" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>43</v>
       </c>
@@ -2025,9 +2130,12 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
+      <c r="C30" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="D30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>74</v>
@@ -2056,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="120">
+    <row r="31" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>44</v>
       </c>
@@ -2064,9 +2172,12 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
+      <c r="C31" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="D31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>75</v>
@@ -2095,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="105">
+    <row r="32" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>45</v>
       </c>
@@ -2103,10 +2214,12 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="D32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>76</v>
@@ -2136,145 +2249,145 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/2.xlsx
+++ b/2.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Tabletki na odchudzanie</t>
   </si>
